--- a/5/2/4/Promedios 1990 a 2021 - Mensual.xlsx
+++ b/5/2/4/Promedios 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="388">
   <si>
     <t>Serie</t>
   </si>
@@ -1175,6 +1175,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I380"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12507,8 +12510,26 @@
       <c r="B379">
         <v>22959</v>
       </c>
+      <c r="C379">
+        <v>20738</v>
+      </c>
+      <c r="D379">
+        <v>1121</v>
+      </c>
+      <c r="E379">
+        <v>1089</v>
+      </c>
+      <c r="F379">
+        <v>11</v>
+      </c>
       <c r="G379">
         <v>22959</v>
+      </c>
+      <c r="H379">
+        <v>9265</v>
+      </c>
+      <c r="I379">
+        <v>13694</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -12516,10 +12537,21 @@
         <v>386</v>
       </c>
       <c r="B380">
-        <v>23363</v>
+        <v>23177</v>
       </c>
       <c r="G380">
-        <v>23363</v>
+        <v>23177</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>387</v>
+      </c>
+      <c r="B381">
+        <v>23068</v>
+      </c>
+      <c r="G381">
+        <v>23068</v>
       </c>
     </row>
   </sheetData>

--- a/5/2/4/Promedios 1990 a 2021 - Mensual.xlsx
+++ b/5/2/4/Promedios 1990 a 2021 - Mensual.xlsx
@@ -12548,10 +12548,10 @@
         <v>387</v>
       </c>
       <c r="B381">
-        <v>23068</v>
+        <v>22982</v>
       </c>
       <c r="G381">
-        <v>23068</v>
+        <v>22982</v>
       </c>
     </row>
   </sheetData>

--- a/5/2/4/Promedios 1990 a 2021 - Mensual.xlsx
+++ b/5/2/4/Promedios 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="389">
   <si>
     <t>Serie</t>
   </si>
@@ -1178,6 +1178,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I381"/>
+  <dimension ref="A1:I382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12539,8 +12542,26 @@
       <c r="B380">
         <v>23177</v>
       </c>
+      <c r="C380">
+        <v>20728</v>
+      </c>
+      <c r="D380">
+        <v>1284</v>
+      </c>
+      <c r="E380">
+        <v>1161</v>
+      </c>
+      <c r="F380">
+        <v>4</v>
+      </c>
       <c r="G380">
         <v>23177</v>
+      </c>
+      <c r="H380">
+        <v>9611</v>
+      </c>
+      <c r="I380">
+        <v>13567</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -12552,6 +12573,17 @@
       </c>
       <c r="G381">
         <v>22982</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>388</v>
+      </c>
+      <c r="B382">
+        <v>23371</v>
+      </c>
+      <c r="G382">
+        <v>23371</v>
       </c>
     </row>
   </sheetData>

--- a/5/2/4/Promedios 1990 a 2021 - Mensual.xlsx
+++ b/5/2/4/Promedios 1990 a 2021 - Mensual.xlsx
@@ -12580,10 +12580,10 @@
         <v>388</v>
       </c>
       <c r="B382">
-        <v>23371</v>
+        <v>23479</v>
       </c>
       <c r="G382">
-        <v>23371</v>
+        <v>23479</v>
       </c>
     </row>
   </sheetData>

--- a/5/2/4/Promedios 1990 a 2021 - Mensual.xlsx
+++ b/5/2/4/Promedios 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="390">
   <si>
     <t>Serie</t>
   </si>
@@ -1181,6 +1181,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I382"/>
+  <dimension ref="A1:I383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12561,7 +12564,7 @@
         <v>9611</v>
       </c>
       <c r="I380">
-        <v>13567</v>
+        <v>13566</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -12571,8 +12574,26 @@
       <c r="B381">
         <v>22982</v>
       </c>
+      <c r="C381">
+        <v>20625</v>
+      </c>
+      <c r="D381">
+        <v>1191</v>
+      </c>
+      <c r="E381">
+        <v>1154</v>
+      </c>
+      <c r="F381">
+        <v>11</v>
+      </c>
       <c r="G381">
         <v>22982</v>
+      </c>
+      <c r="H381">
+        <v>9579</v>
+      </c>
+      <c r="I381">
+        <v>13403</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -12584,6 +12605,17 @@
       </c>
       <c r="G382">
         <v>23479</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>389</v>
+      </c>
+      <c r="B383">
+        <v>24024</v>
+      </c>
+      <c r="G383">
+        <v>24024</v>
       </c>
     </row>
   </sheetData>

--- a/5/2/4/Promedios 1990 a 2021 - Mensual.xlsx
+++ b/5/2/4/Promedios 1990 a 2021 - Mensual.xlsx
@@ -12612,10 +12612,10 @@
         <v>389</v>
       </c>
       <c r="B383">
-        <v>24024</v>
+        <v>24237</v>
       </c>
       <c r="G383">
-        <v>24024</v>
+        <v>24237</v>
       </c>
     </row>
   </sheetData>
